--- a/data/trans_orig/P36B09-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92DDC0C9-334B-455D-9C0D-3CC68164609A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BE9E14-65B5-4879-9DA4-7DDF0345E1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A8D34DC-C509-4388-924A-FDF713A58ABC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8DCD3811-27B1-4645-9A5B-9E89FAE5C808}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1013">
   <si>
     <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -1234,7 +1234,121 @@
     <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -1381,9 +1495,6 @@
     <t>14,02%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
     <t>40,67%</t>
   </si>
   <si>
@@ -1426,9 +1537,6 @@
     <t>23,45%</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
     <t>34,12%</t>
   </si>
   <si>
@@ -1459,1101 +1567,1080 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>46,95%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>11,88%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
     <t>8,64%</t>
   </si>
   <si>
@@ -2632,9 +2719,6 @@
     <t>6,2%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
     <t>3,52%</t>
   </si>
   <si>
@@ -2704,9 +2788,6 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
     <t>1,58%</t>
   </si>
   <si>
@@ -2768,9 +2849,6 @@
   </si>
   <si>
     <t>43,86%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
   </si>
   <si>
     <t>46,68%</t>
@@ -3410,7 +3488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF55B30-B963-4741-A05C-7CD0F7C47059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D543D751-4069-48A1-BC71-1932DF9C9DB0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6148,7 +6226,7 @@
         <v>1493</v>
       </c>
       <c r="D55" s="7">
-        <v>1523094</v>
+        <v>1523093</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>381</v>
@@ -6250,7 +6328,7 @@
         <v>3210</v>
       </c>
       <c r="D57" s="7">
-        <v>3272994</v>
+        <v>3272993</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>59</v>
@@ -6318,7 +6396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B183CD-415C-4316-B9B3-E610CEB38630}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956B574D-A85B-4EE6-8A7D-65290C1457FC}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6436,43 +6514,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9405</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>398</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>398</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8673</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="N4" s="7">
+        <v>18078</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,43 +6565,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21045</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10203</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>398</v>
+        <v>102</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="N5" s="7">
+        <v>31247</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,43 +6616,49 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="D6" s="7">
+        <v>104338</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="I6" s="7">
+        <v>115378</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="N6" s="7">
+        <v>219716</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,43 +6667,49 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="D7" s="7">
+        <v>111865</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>398</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>96</v>
+      </c>
+      <c r="I7" s="7">
+        <v>108504</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>202</v>
+      </c>
+      <c r="N7" s="7">
+        <v>220369</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,43 +6718,49 @@
         <v>49</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="D8" s="7">
+        <v>48085</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="I8" s="7">
+        <v>44488</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="N8" s="7">
+        <v>92572</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,43 +6769,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D9" s="7">
+        <v>294738</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I9" s="7">
+        <v>287245</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N9" s="7">
+        <v>581983</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>398</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,10 +6846,10 @@
         <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6744,13 +6858,13 @@
         <v>8129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6879,13 @@
         <v>13722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -6780,13 +6894,13 @@
         <v>23733</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -6795,10 +6909,10 @@
         <v>37456</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>272</v>
@@ -6816,13 +6930,13 @@
         <v>193393</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="H12" s="7">
         <v>201</v>
@@ -6831,13 +6945,13 @@
         <v>216927</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="M12" s="7">
         <v>388</v>
@@ -6846,13 +6960,13 @@
         <v>410320</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,10 +6981,10 @@
         <v>279859</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>260</v>
@@ -6882,13 +6996,13 @@
         <v>266667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
       <c r="M13" s="7">
         <v>497</v>
@@ -6897,13 +7011,13 @@
         <v>546526</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +7032,13 @@
         <v>15461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -6936,10 +7050,10 @@
         <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>21</v>
@@ -6951,7 +7065,7 @@
         <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>327</v>
@@ -7028,7 +7142,7 @@
         <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7037,10 +7151,10 @@
         <v>8119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>194</v>
@@ -7055,10 +7169,10 @@
         <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7187,13 @@
         <v>46757</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -7088,13 +7202,13 @@
         <v>65187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="M17" s="7">
         <v>102</v>
@@ -7103,13 +7217,13 @@
         <v>111944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7238,13 @@
         <v>130999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7">
         <v>148</v>
@@ -7139,13 +7253,13 @@
         <v>159622</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>452</v>
+        <v>489</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>453</v>
+        <v>490</v>
       </c>
       <c r="M18" s="7">
         <v>273</v>
@@ -7154,13 +7268,13 @@
         <v>290621</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>454</v>
+        <v>491</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>456</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,13 +7289,13 @@
         <v>128888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -7190,13 +7304,13 @@
         <v>96990</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>226</v>
@@ -7205,13 +7319,13 @@
         <v>225878</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7340,13 @@
         <v>15443</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>502</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7241,13 +7355,13 @@
         <v>10001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -7259,10 +7373,10 @@
         <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>471</v>
+        <v>507</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,49 +7438,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>17122</v>
+        <v>7716</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>164</v>
+        <v>509</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>510</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>473</v>
+        <v>187</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>9812</v>
+        <v>1140</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>474</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>26934</v>
+        <v>8856</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,49 +7489,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>38973</v>
+        <v>17928</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>478</v>
+        <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="H23" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I23" s="7">
-        <v>40697</v>
+        <v>30494</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>480</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="M23" s="7">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="N23" s="7">
-        <v>79670</v>
+        <v>48422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>483</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,49 +7540,49 @@
         <v>29</v>
       </c>
       <c r="C24" s="7">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="D24" s="7">
-        <v>238224</v>
+        <v>133886</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="H24" s="7">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="I24" s="7">
-        <v>246657</v>
+        <v>131279</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>301</v>
+        <v>522</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="M24" s="7">
-        <v>453</v>
+        <v>249</v>
       </c>
       <c r="N24" s="7">
-        <v>484882</v>
+        <v>265165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>493</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,49 +7591,49 @@
         <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="D25" s="7">
-        <v>288068</v>
+        <v>176203</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="H25" s="7">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="I25" s="7">
-        <v>304665</v>
+        <v>196160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="M25" s="7">
-        <v>550</v>
+        <v>348</v>
       </c>
       <c r="N25" s="7">
-        <v>592732</v>
+        <v>372363</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>501</v>
+        <v>387</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,49 +7642,49 @@
         <v>49</v>
       </c>
       <c r="C26" s="7">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D26" s="7">
-        <v>86334</v>
+        <v>38249</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="H26" s="7">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I26" s="7">
-        <v>73287</v>
+        <v>28799</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="M26" s="7">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="N26" s="7">
-        <v>159620</v>
+        <v>67048</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,10 +7693,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D27" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -7594,10 +7708,10 @@
         <v>59</v>
       </c>
       <c r="H27" s="7">
-        <v>626</v>
+        <v>370</v>
       </c>
       <c r="I27" s="7">
-        <v>675118</v>
+        <v>387873</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -7609,10 +7723,10 @@
         <v>59</v>
       </c>
       <c r="M27" s="7">
-        <v>1252</v>
+        <v>714</v>
       </c>
       <c r="N27" s="7">
-        <v>1343838</v>
+        <v>761855</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -7644,7 +7758,7 @@
         <v>234</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -7653,7 +7767,7 @@
         <v>1109</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
@@ -7689,13 +7803,13 @@
         <v>15798</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>514</v>
+        <v>543</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>515</v>
+        <v>544</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -7704,13 +7818,13 @@
         <v>24026</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>518</v>
+        <v>547</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -7719,13 +7833,13 @@
         <v>39824</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7854,13 @@
         <v>111716</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="H30" s="7">
         <v>119</v>
@@ -7755,13 +7869,13 @@
         <v>123399</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="M30" s="7">
         <v>223</v>
@@ -7770,10 +7884,10 @@
         <v>235115</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>308</v>
@@ -7791,13 +7905,13 @@
         <v>78138</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>532</v>
+        <v>414</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="H31" s="7">
         <v>60</v>
@@ -7806,13 +7920,13 @@
         <v>61698</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="M31" s="7">
         <v>131</v>
@@ -7821,13 +7935,13 @@
         <v>139835</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,13 +7956,13 @@
         <v>6967</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -7860,10 +7974,10 @@
         <v>314</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -7872,13 +7986,13 @@
         <v>15335</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>545</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,7 +8066,7 @@
         <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -7964,7 +8078,7 @@
         <v>271</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>195</v>
@@ -7976,13 +8090,13 @@
         <v>3046</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +8111,13 @@
         <v>41613</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="H35" s="7">
         <v>53</v>
@@ -8012,13 +8126,13 @@
         <v>55115</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="M35" s="7">
         <v>93</v>
@@ -8027,13 +8141,13 @@
         <v>96728</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,10 +8162,10 @@
         <v>110631</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>381</v>
@@ -8066,10 +8180,10 @@
         <v>344</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="M36" s="7">
         <v>219</v>
@@ -8081,10 +8195,10 @@
         <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8213,13 @@
         <v>108663</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="H37" s="7">
         <v>88</v>
@@ -8114,13 +8228,13 @@
         <v>91567</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="M37" s="7">
         <v>190</v>
@@ -8129,13 +8243,13 @@
         <v>200230</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8264,13 @@
         <v>11152</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
       <c r="H38" s="7">
         <v>12</v>
@@ -8165,13 +8279,13 @@
         <v>13505</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="M38" s="7">
         <v>23</v>
@@ -8183,10 +8297,10 @@
         <v>333</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>474</v>
+        <v>607</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8257,10 +8371,10 @@
         <v>144</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -8269,10 +8383,10 @@
         <v>10937</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>105</v>
@@ -8284,13 +8398,13 @@
         <v>20113</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,13 +8419,13 @@
         <v>51713</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
       <c r="H41" s="7">
         <v>68</v>
@@ -8320,13 +8434,13 @@
         <v>76982</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>511</v>
+        <v>619</v>
       </c>
       <c r="M41" s="7">
         <v>113</v>
@@ -8335,13 +8449,13 @@
         <v>128694</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>275</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8356,13 +8470,13 @@
         <v>267050</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
       <c r="H42" s="7">
         <v>306</v>
@@ -8371,13 +8485,13 @@
         <v>331209</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>388</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="M42" s="7">
         <v>548</v>
@@ -8386,13 +8500,13 @@
         <v>598259</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,13 +8521,13 @@
         <v>266190</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="H43" s="7">
         <v>212</v>
@@ -8422,13 +8536,13 @@
         <v>230409</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>604</v>
+        <v>633</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>605</v>
+        <v>634</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>606</v>
+        <v>635</v>
       </c>
       <c r="M43" s="7">
         <v>471</v>
@@ -8437,13 +8551,13 @@
         <v>496599</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>607</v>
+        <v>636</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8458,13 +8572,13 @@
         <v>58524</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>609</v>
+        <v>638</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>611</v>
+        <v>640</v>
       </c>
       <c r="H44" s="7">
         <v>37</v>
@@ -8473,13 +8587,13 @@
         <v>39473</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>612</v>
+        <v>641</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>371</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="M44" s="7">
         <v>93</v>
@@ -8488,13 +8602,13 @@
         <v>97997</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8577,13 +8691,13 @@
         <v>6440</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>616</v>
+        <v>510</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -8595,10 +8709,10 @@
         <v>323</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8613,13 +8727,13 @@
         <v>29625</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
       <c r="H47" s="7">
         <v>37</v>
@@ -8628,13 +8742,13 @@
         <v>39783</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="M47" s="7">
         <v>64</v>
@@ -8643,13 +8757,13 @@
         <v>69407</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>248</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8664,13 +8778,13 @@
         <v>277993</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="H48" s="7">
         <v>323</v>
@@ -8679,13 +8793,13 @@
         <v>354750</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="M48" s="7">
         <v>580</v>
@@ -8694,13 +8808,13 @@
         <v>632743</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8715,28 +8829,28 @@
         <v>390897</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
       <c r="H49" s="7">
         <v>332</v>
       </c>
       <c r="I49" s="7">
-        <v>358163</v>
+        <v>358164</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="M49" s="7">
         <v>693</v>
@@ -8745,13 +8859,13 @@
         <v>749061</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8766,13 +8880,13 @@
         <v>77426</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="H50" s="7">
         <v>59</v>
@@ -8781,10 +8895,10 @@
         <v>63670</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>230</v>
@@ -8796,13 +8910,13 @@
         <v>141096</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8829,7 +8943,7 @@
         <v>756</v>
       </c>
       <c r="I51" s="7">
-        <v>822806</v>
+        <v>822807</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>59</v>
@@ -8870,13 +8984,13 @@
         <v>30408</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>361</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="H52" s="7">
         <v>40</v>
@@ -8885,13 +8999,13 @@
         <v>45541</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="M52" s="7">
         <v>68</v>
@@ -8903,7 +9017,7 @@
         <v>271</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>365</v>
@@ -8921,13 +9035,13 @@
         <v>238201</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
       <c r="H53" s="7">
         <v>300</v>
@@ -8936,13 +9050,13 @@
         <v>325523</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>390</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>663</v>
+        <v>534</v>
       </c>
       <c r="M53" s="7">
         <v>516</v>
@@ -8951,10 +9065,10 @@
         <v>563723</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>485</v>
+        <v>692</v>
       </c>
       <c r="Q53" s="7" t="s">
         <v>202</v>
@@ -8972,13 +9086,13 @@
         <v>1330006</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="H54" s="7">
         <v>1442</v>
@@ -8987,13 +9101,13 @@
         <v>1549362</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="M54" s="7">
         <v>2684</v>
@@ -9002,13 +9116,13 @@
         <v>2879368</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9023,13 +9137,13 @@
         <v>1540703</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>674</v>
+        <v>530</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="H55" s="7">
         <v>1306</v>
@@ -9038,13 +9152,13 @@
         <v>1410159</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>678</v>
+        <v>426</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="M55" s="7">
         <v>2758</v>
@@ -9053,13 +9167,13 @@
         <v>2950862</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9074,13 +9188,13 @@
         <v>271306</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="H56" s="7">
         <v>199</v>
@@ -9089,13 +9203,13 @@
         <v>214452</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="M56" s="7">
         <v>456</v>
@@ -9104,13 +9218,13 @@
         <v>485758</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9190,7 +9304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E1638EE-EE8A-42F0-B3FA-C824B11DAE0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BE27B9-5B2D-4F69-A951-99A64592543E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9207,7 +9321,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9314,13 +9428,13 @@
         <v>5737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -9332,10 +9446,10 @@
         <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -9347,10 +9461,10 @@
         <v>21</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>484</v>
+        <v>721</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9365,13 +9479,13 @@
         <v>4492</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -9380,13 +9494,13 @@
         <v>14846</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -9395,13 +9509,13 @@
         <v>19339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>701</v>
+        <v>728</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>702</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9416,13 +9530,13 @@
         <v>111926</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>703</v>
+        <v>730</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>704</v>
+        <v>731</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>705</v>
+        <v>732</v>
       </c>
       <c r="H6" s="7">
         <v>114</v>
@@ -9431,13 +9545,13 @@
         <v>121116</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>706</v>
+        <v>733</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>707</v>
+        <v>734</v>
       </c>
       <c r="M6" s="7">
         <v>216</v>
@@ -9446,13 +9560,13 @@
         <v>233043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>709</v>
+        <v>736</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>710</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9467,13 +9581,13 @@
         <v>133326</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>498</v>
+        <v>739</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>712</v>
+        <v>533</v>
       </c>
       <c r="H7" s="7">
         <v>110</v>
@@ -9482,13 +9596,13 @@
         <v>110003</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="M7" s="7">
         <v>232</v>
@@ -9497,13 +9611,13 @@
         <v>243329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9521,10 +9635,10 @@
         <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -9533,13 +9647,13 @@
         <v>31258</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>506</v>
+        <v>748</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -9548,13 +9662,13 @@
         <v>63972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9622,13 +9736,13 @@
         <v>929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -9637,13 +9751,13 @@
         <v>2314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -9652,10 +9766,10 @@
         <v>3243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>247</v>
@@ -9673,13 +9787,13 @@
         <v>29176</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>477</v>
+        <v>759</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>731</v>
+        <v>760</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>732</v>
+        <v>761</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -9688,13 +9802,13 @@
         <v>41052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>734</v>
+        <v>763</v>
       </c>
       <c r="M11" s="7">
         <v>67</v>
@@ -9706,10 +9820,10 @@
         <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>735</v>
+        <v>764</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>736</v>
+        <v>765</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9724,13 +9838,13 @@
         <v>96230</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>737</v>
+        <v>766</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>738</v>
+        <v>767</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>739</v>
+        <v>768</v>
       </c>
       <c r="H12" s="7">
         <v>119</v>
@@ -9739,13 +9853,13 @@
         <v>126963</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>741</v>
+        <v>770</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="M12" s="7">
         <v>213</v>
@@ -9754,13 +9868,13 @@
         <v>223194</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>745</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9775,13 +9889,13 @@
         <v>246791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>748</v>
+        <v>777</v>
       </c>
       <c r="H13" s="7">
         <v>212</v>
@@ -9790,13 +9904,13 @@
         <v>227259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>749</v>
+        <v>778</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="M13" s="7">
         <v>443</v>
@@ -9805,13 +9919,13 @@
         <v>474050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>752</v>
+        <v>781</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>753</v>
+        <v>782</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9826,13 +9940,13 @@
         <v>127294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>757</v>
+        <v>786</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -9841,13 +9955,13 @@
         <v>123560</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>758</v>
+        <v>787</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>759</v>
+        <v>788</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>760</v>
+        <v>789</v>
       </c>
       <c r="M14" s="7">
         <v>229</v>
@@ -9856,13 +9970,13 @@
         <v>250854</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>761</v>
+        <v>790</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>762</v>
+        <v>791</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>763</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9930,13 +10044,13 @@
         <v>865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>764</v>
+        <v>793</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -9945,13 +10059,13 @@
         <v>1842</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>765</v>
+        <v>794</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -9960,10 +10074,10 @@
         <v>2707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>766</v>
+        <v>795</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>196</v>
@@ -9984,7 +10098,7 @@
         <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>393</v>
@@ -9996,13 +10110,13 @@
         <v>9265</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -10011,13 +10125,13 @@
         <v>13240</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10032,13 +10146,13 @@
         <v>168826</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>775</v>
+        <v>804</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
       <c r="H18" s="7">
         <v>211</v>
@@ -10047,13 +10161,13 @@
         <v>213237</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="M18" s="7">
         <v>387</v>
@@ -10062,13 +10176,13 @@
         <v>382063</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>780</v>
+        <v>809</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>781</v>
+        <v>810</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>782</v>
+        <v>811</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10083,13 +10197,13 @@
         <v>136519</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>785</v>
+        <v>814</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -10098,13 +10212,13 @@
         <v>109295</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>786</v>
+        <v>815</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>787</v>
+        <v>816</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -10113,13 +10227,13 @@
         <v>245815</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>788</v>
+        <v>817</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>789</v>
+        <v>818</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10134,13 +10248,13 @@
         <v>5671</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10155,7 +10269,7 @@
         <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -10164,10 +10278,10 @@
         <v>5671</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>794</v>
+        <v>823</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>364</v>
@@ -10244,7 +10358,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -10256,10 +10370,10 @@
         <v>365</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>795</v>
+        <v>824</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>796</v>
+        <v>825</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -10268,13 +10382,13 @@
         <v>7933</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>797</v>
+        <v>826</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10289,10 +10403,10 @@
         <v>3686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>799</v>
+        <v>828</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>111</v>
@@ -10304,13 +10418,13 @@
         <v>13940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>290</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>801</v>
+        <v>830</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -10319,13 +10433,13 @@
         <v>17625</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>802</v>
+        <v>831</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>365</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10340,13 +10454,13 @@
         <v>156839</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>805</v>
+        <v>834</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="H24" s="7">
         <v>161</v>
@@ -10355,13 +10469,13 @@
         <v>174610</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>809</v>
+        <v>529</v>
       </c>
       <c r="M24" s="7">
         <v>309</v>
@@ -10370,13 +10484,13 @@
         <v>331450</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10391,13 +10505,13 @@
         <v>181407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>813</v>
+        <v>841</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="H25" s="7">
         <v>162</v>
@@ -10406,10 +10520,10 @@
         <v>174139</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>816</v>
+        <v>844</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>214</v>
@@ -10421,13 +10535,13 @@
         <v>355545</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>496</v>
+        <v>846</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>818</v>
+        <v>847</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>819</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10445,10 +10559,10 @@
         <v>70</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>820</v>
+        <v>849</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -10460,10 +10574,10 @@
         <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>822</v>
+        <v>402</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -10472,13 +10586,13 @@
         <v>44694</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>825</v>
+        <v>853</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>826</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10546,13 +10660,13 @@
         <v>1756</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -10567,7 +10681,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -10579,10 +10693,10 @@
         <v>241</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>829</v>
+        <v>857</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10603,7 +10717,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -10612,13 +10726,13 @@
         <v>960</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>831</v>
+        <v>859</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -10627,13 +10741,13 @@
         <v>2856</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>832</v>
+        <v>860</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>833</v>
+        <v>861</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>790</v>
+        <v>819</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10648,13 +10762,13 @@
         <v>20791</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>835</v>
+        <v>863</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>836</v>
+        <v>864</v>
       </c>
       <c r="H30" s="7">
         <v>16</v>
@@ -10663,13 +10777,13 @@
         <v>16256</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>485</v>
+        <v>692</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>837</v>
+        <v>865</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>509</v>
+        <v>866</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -10678,13 +10792,13 @@
         <v>37047</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>838</v>
+        <v>867</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10699,13 +10813,13 @@
         <v>96593</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>841</v>
+        <v>870</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
       <c r="H31" s="7">
         <v>103</v>
@@ -10714,13 +10828,13 @@
         <v>98473</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>843</v>
+        <v>872</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>844</v>
+        <v>873</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>845</v>
+        <v>874</v>
       </c>
       <c r="M31" s="7">
         <v>199</v>
@@ -10729,13 +10843,13 @@
         <v>195066</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>846</v>
+        <v>875</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>847</v>
+        <v>876</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>848</v>
+        <v>877</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10750,13 +10864,13 @@
         <v>90185</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>850</v>
+        <v>879</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>851</v>
+        <v>880</v>
       </c>
       <c r="H32" s="7">
         <v>101</v>
@@ -10765,13 +10879,13 @@
         <v>100468</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>854</v>
+        <v>883</v>
       </c>
       <c r="M32" s="7">
         <v>192</v>
@@ -10780,13 +10894,13 @@
         <v>190653</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10857,10 +10971,10 @@
         <v>18</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -10869,13 +10983,13 @@
         <v>8902</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>860</v>
+        <v>889</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -10884,7 +10998,7 @@
         <v>12925</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>861</v>
+        <v>890</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>291</v>
@@ -10908,10 +11022,10 @@
         <v>289</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>863</v>
+        <v>892</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -10923,10 +11037,10 @@
         <v>231</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -10935,13 +11049,13 @@
         <v>28767</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>864</v>
+        <v>410</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>866</v>
+        <v>894</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10956,13 +11070,13 @@
         <v>130237</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>869</v>
+        <v>897</v>
       </c>
       <c r="H36" s="7">
         <v>158</v>
@@ -10971,13 +11085,13 @@
         <v>163832</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>870</v>
+        <v>898</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="M36" s="7">
         <v>287</v>
@@ -10986,13 +11100,13 @@
         <v>294069</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>875</v>
+        <v>903</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11007,13 +11121,13 @@
         <v>115937</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="H37" s="7">
         <v>74</v>
@@ -11022,13 +11136,13 @@
         <v>75437</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="M37" s="7">
         <v>187</v>
@@ -11037,13 +11151,13 @@
         <v>191374</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>882</v>
+        <v>910</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11064,7 +11178,7 @@
         <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -11076,7 +11190,7 @@
         <v>284</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>368</v>
@@ -11088,13 +11202,13 @@
         <v>8119</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11136,7 +11250,7 @@
         <v>521</v>
       </c>
       <c r="N39" s="7">
-        <v>535254</v>
+        <v>535255</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -11165,7 +11279,7 @@
         <v>150</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>100</v>
@@ -11177,13 +11291,13 @@
         <v>6979</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>888</v>
+        <v>509</v>
       </c>
       <c r="M40" s="7">
         <v>10</v>
@@ -11192,13 +11306,13 @@
         <v>11412</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>889</v>
+        <v>916</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11219,7 +11333,7 @@
         <v>392</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>890</v>
+        <v>917</v>
       </c>
       <c r="H41" s="7">
         <v>36</v>
@@ -11228,13 +11342,13 @@
         <v>37438</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>891</v>
+        <v>918</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>274</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>613</v>
+        <v>642</v>
       </c>
       <c r="M41" s="7">
         <v>66</v>
@@ -11243,13 +11357,13 @@
         <v>72373</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>892</v>
+        <v>919</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>893</v>
+        <v>920</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>894</v>
+        <v>921</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11264,13 +11378,13 @@
         <v>225186</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>895</v>
+        <v>922</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>897</v>
+        <v>924</v>
       </c>
       <c r="H42" s="7">
         <v>247</v>
@@ -11279,13 +11393,13 @@
         <v>269939</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>899</v>
+        <v>926</v>
       </c>
       <c r="M42" s="7">
         <v>444</v>
@@ -11294,13 +11408,13 @@
         <v>495125</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>900</v>
+        <v>927</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>901</v>
+        <v>928</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>902</v>
+        <v>929</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11315,13 +11429,13 @@
         <v>308393</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>904</v>
+        <v>931</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>905</v>
+        <v>932</v>
       </c>
       <c r="H43" s="7">
         <v>263</v>
@@ -11330,13 +11444,13 @@
         <v>280966</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>906</v>
+        <v>933</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>908</v>
+        <v>935</v>
       </c>
       <c r="M43" s="7">
         <v>537</v>
@@ -11345,13 +11459,13 @@
         <v>589359</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>909</v>
+        <v>936</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>910</v>
+        <v>520</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>911</v>
+        <v>937</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11366,13 +11480,13 @@
         <v>81665</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>912</v>
+        <v>938</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>913</v>
+        <v>939</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="H44" s="7">
         <v>92</v>
@@ -11381,13 +11495,13 @@
         <v>93812</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>915</v>
+        <v>941</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>916</v>
+        <v>942</v>
       </c>
       <c r="M44" s="7">
         <v>165</v>
@@ -11396,13 +11510,13 @@
         <v>175477</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>917</v>
+        <v>943</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>919</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11470,7 +11584,7 @@
         <v>1060</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
@@ -11485,10 +11599,10 @@
         <v>4143</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>921</v>
+        <v>947</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>193</v>
@@ -11500,13 +11614,13 @@
         <v>5203</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>923</v>
+        <v>949</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11521,13 +11635,13 @@
         <v>13126</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>924</v>
+        <v>950</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -11539,10 +11653,10 @@
         <v>291</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>925</v>
+        <v>951</v>
       </c>
       <c r="M47" s="7">
         <v>22</v>
@@ -11551,7 +11665,7 @@
         <v>23847</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>926</v>
+        <v>952</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>153</v>
@@ -11572,13 +11686,13 @@
         <v>251180</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>927</v>
+        <v>953</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>928</v>
+        <v>954</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>929</v>
+        <v>955</v>
       </c>
       <c r="H48" s="7">
         <v>297</v>
@@ -11587,13 +11701,13 @@
         <v>323891</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>930</v>
+        <v>956</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>931</v>
+        <v>957</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>932</v>
+        <v>958</v>
       </c>
       <c r="M48" s="7">
         <v>541</v>
@@ -11602,13 +11716,13 @@
         <v>575071</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>933</v>
+        <v>959</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>934</v>
+        <v>960</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>935</v>
+        <v>961</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11623,13 +11737,13 @@
         <v>382620</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>851</v>
+        <v>880</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="H49" s="7">
         <v>326</v>
@@ -11638,13 +11752,13 @@
         <v>361270</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>937</v>
+        <v>963</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>938</v>
+        <v>964</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>939</v>
+        <v>965</v>
       </c>
       <c r="M49" s="7">
         <v>692</v>
@@ -11653,13 +11767,13 @@
         <v>743890</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>941</v>
+        <v>967</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11674,13 +11788,13 @@
         <v>126785</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>942</v>
+        <v>968</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>511</v>
+        <v>619</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>943</v>
+        <v>969</v>
       </c>
       <c r="H50" s="7">
         <v>117</v>
@@ -11689,13 +11803,13 @@
         <v>124979</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>944</v>
+        <v>970</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>945</v>
+        <v>971</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>946</v>
+        <v>972</v>
       </c>
       <c r="M50" s="7">
         <v>240</v>
@@ -11704,13 +11818,13 @@
         <v>251763</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>947</v>
+        <v>973</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>948</v>
+        <v>974</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>949</v>
+        <v>975</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11778,13 +11892,13 @@
         <v>21392</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>950</v>
+        <v>976</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
       <c r="H52" s="7">
         <v>38</v>
@@ -11796,10 +11910,10 @@
         <v>104</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>951</v>
+        <v>977</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>952</v>
+        <v>978</v>
       </c>
       <c r="M52" s="7">
         <v>59</v>
@@ -11808,13 +11922,13 @@
         <v>62946</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>953</v>
+        <v>979</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>112</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>954</v>
+        <v>980</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -11829,13 +11943,13 @@
         <v>100326</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>955</v>
+        <v>981</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>861</v>
+        <v>890</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>956</v>
+        <v>982</v>
       </c>
       <c r="H53" s="7">
         <v>138</v>
@@ -11844,13 +11958,13 @@
         <v>147949</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>957</v>
+        <v>983</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>958</v>
+        <v>984</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>959</v>
+        <v>985</v>
       </c>
       <c r="M53" s="7">
         <v>232</v>
@@ -11859,13 +11973,13 @@
         <v>248275</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>960</v>
+        <v>986</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>961</v>
+        <v>987</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11880,13 +11994,13 @@
         <v>1161215</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>962</v>
+        <v>988</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>963</v>
+        <v>989</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>964</v>
+        <v>990</v>
       </c>
       <c r="H54" s="7">
         <v>1323</v>
@@ -11895,13 +12009,13 @@
         <v>1409845</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>965</v>
+        <v>991</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>966</v>
+        <v>992</v>
       </c>
       <c r="M54" s="7">
         <v>2434</v>
@@ -11910,13 +12024,13 @@
         <v>2571060</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>967</v>
+        <v>993</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>968</v>
+        <v>994</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>969</v>
+        <v>995</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11931,13 +12045,13 @@
         <v>1601587</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>970</v>
+        <v>996</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>971</v>
+        <v>997</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>972</v>
+        <v>998</v>
       </c>
       <c r="H55" s="7">
         <v>1357</v>
@@ -11946,13 +12060,13 @@
         <v>1436840</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>847</v>
+        <v>876</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>973</v>
+        <v>999</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>974</v>
+        <v>1000</v>
       </c>
       <c r="M55" s="7">
         <v>2880</v>
@@ -11961,13 +12075,13 @@
         <v>3038427</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>975</v>
+        <v>1001</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>976</v>
+        <v>1002</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>977</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11982,13 +12096,13 @@
         <v>492660</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>978</v>
+        <v>1004</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>979</v>
+        <v>1005</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>980</v>
+        <v>1006</v>
       </c>
       <c r="H56" s="7">
         <v>472</v>
@@ -11997,13 +12111,13 @@
         <v>498542</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>981</v>
+        <v>1007</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>982</v>
+        <v>1008</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>983</v>
+        <v>1009</v>
       </c>
       <c r="M56" s="7">
         <v>938</v>
@@ -12012,13 +12126,13 @@
         <v>991203</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>985</v>
+        <v>1011</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>986</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
